--- a/Winter 2023 Showcase Data Dictionary.xlsx
+++ b/Winter 2023 Showcase Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\246065\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/yil305_pitt_edu/Documents/Desktop/carmax/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20F6F1C-3D74-4FFD-BB0E-297A8D81A7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C95EC132-76B9-407D-83DC-DEE47DD12ECB}"/>
+    <workbookView xWindow="11040" yWindow="600" windowWidth="11880" windowHeight="8964" xr2:uid="{C95EC132-76B9-407D-83DC-DEE47DD12ECB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary - Winter 2023" sheetId="10" r:id="rId1"/>
@@ -257,7 +257,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -265,13 +265,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Century Gothic"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -308,29 +308,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -377,7 +375,7 @@
 </file>
 
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="Clean mask Y" id="{5BEE7B62-3398-4839-9D04-55C845A79D7D}"/>
 </namedSheetViews>
 </file>
@@ -645,477 +643,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C003FF-C9FF-4B4C-B257-04E0FA6CB6FF}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
